--- a/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample05-file.xlsx
+++ b/source/samples/export/iTin.Export.Queries.SqlServerCeSample/output/sample9x/fromconfigfile/sample05-file.xlsx
@@ -403,6 +403,7 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="6"/>
       <c r="B7" s="10"/>
       <c r="C7" s="14">
         <f>SUBTOTAL(109,C2:C6)</f>
